--- a/loaded_influencer_data/skinbykaur/skinbykaur_video.xlsx
+++ b/loaded_influencer_data/skinbykaur/skinbykaur_video.xlsx
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7464997849965563154</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C2" t="n">
         <v>26</v>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.731225296442688</v>
+        <v>5.642023346303502</v>
       </c>
       <c r="I2" t="n">
-        <v>5.138339920948617</v>
+        <v>5.058365758754864</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5928853754940711</v>
+        <v>0.5836575875486382</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3952569169960474</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -557,16 +557,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7456822654897622280</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.786026200873363</v>
+        <v>5.856832971800434</v>
       </c>
       <c r="I3" t="n">
-        <v>5.131004366812228</v>
+        <v>5.206073752711497</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6550218340611353</v>
+        <v>0.6507592190889371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2183406113537118</v>
+        <v>0.2169197396963124</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -608,13 +608,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7456075993900518664</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C4" t="n">
         <v>38</v>
@@ -634,19 +634,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.201560468140442</v>
+        <v>5.188067444876784</v>
       </c>
       <c r="I4" t="n">
-        <v>4.94148244473342</v>
+        <v>4.928664072632944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2600780234070221</v>
+        <v>0.2594033722438391</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5201560468140443</v>
+        <v>0.5188067444876783</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7455710237236956424</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C5" t="n">
         <v>37</v>
@@ -680,23 +680,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Some of my favs 💗</t>
+          <t>My favs ! 💗
+#koreanskincare #koreanskincareproducts #salycilicacid</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.72636815920398</v>
+        <v>4.708798017348203</v>
       </c>
       <c r="I5" t="n">
-        <v>4.601990049751244</v>
+        <v>4.584882280049566</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1243781094527363</v>
+        <v>0.1239157372986369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3731343283582089</v>
+        <v>0.3717472118959108</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -708,13 +709,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7454595728619408648</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C6" t="n">
         <v>24</v>
@@ -735,16 +736,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.578754578754578</v>
+        <v>4.570383912248629</v>
       </c>
       <c r="I6" t="n">
-        <v>4.395604395604396</v>
+        <v>4.387568555758683</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1831501831501831</v>
+        <v>0.1828153564899452</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -759,13 +760,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7452741546706865415</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C7" t="n">
         <v>36</v>
@@ -786,19 +787,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.006765899864682</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.871447902571042</v>
+        <v>4.864864864864865</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1353179972936401</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2706359945872801</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -810,7 +811,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7452369197356633351</t>
         </is>
@@ -819,99 +820,100 @@
         <v>677</v>
       </c>
       <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Love yourself first 💗
+#selflove #loveletter #selfdevelopment #grwmroutine</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.465288035450517</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.317577548005908</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1477104874446086</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2954209748892171</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skinbykaur/video/7451626303763057938</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>540</v>
+      </c>
+      <c r="C9" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>By far my favourite sunscreens are all Korean !
 None of them leave a white caste and they're really good for sensitive skin types too!</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>7.23781388478582</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.942392909896602</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2954209748892171</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7385524372230428</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>9.074074074074074</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.703703703703704</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3703703703703704</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9259259259259258</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skinbykaur/video/7451626303763057938</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>540</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>This was fun 😂</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6.111111111111111</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.37037037037037</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7407407407407408</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7450883457066028295</t>
         </is>
@@ -923,22 +925,21 @@
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>If I can anyone can!
-#makeuptutorial #makeup #glowybase</t>
+          <t>This was fun 😂</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.231920199501247</v>
+        <v>8.229426433915211</v>
       </c>
       <c r="I10" t="n">
         <v>7.231920199501247</v>
@@ -947,22 +948,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.997506234413965</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2493765586034913</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-24</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7450139087140310279</t>
         </is>
@@ -1012,7 +1013,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7449798609828203794</t>
         </is>
@@ -1063,7 +1064,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7449403880749763847</t>
         </is>
@@ -1114,7 +1115,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7449032759034596615</t>
         </is>
@@ -1165,7 +1166,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7448661091711716626</t>
         </is>
@@ -1215,7 +1216,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7447173406769925384</t>
         </is>
@@ -1266,7 +1267,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7446802357872037138</t>
         </is>
@@ -1316,7 +1317,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7446427792465464583</t>
         </is>
@@ -1366,7 +1367,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7446060096989252882</t>
         </is>
@@ -1417,7 +1418,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7445316320905760007</t>
         </is>
@@ -1468,7 +1469,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7444573266502503698</t>
         </is>
@@ -1519,7 +1520,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7444215510570405127</t>
         </is>
@@ -1570,7 +1571,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7443832368802106632</t>
         </is>
@@ -1621,7 +1622,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7443088793952898312</t>
         </is>
@@ -1671,7 +1672,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7442724360953056519</t>
         </is>
@@ -1722,7 +1723,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7441981678383287559</t>
         </is>
@@ -1773,7 +1774,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7441235634343251208</t>
         </is>
@@ -1823,7 +1824,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7440865307184450823</t>
         </is>
@@ -1874,7 +1875,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7440491249561390354</t>
         </is>
@@ -1925,7 +1926,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7440124135813942536</t>
         </is>
@@ -1976,7 +1977,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7439377596007206152</t>
         </is>
@@ -2027,7 +2028,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7439008171328425224</t>
         </is>
@@ -2079,7 +2080,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7438264039626509586</t>
         </is>
@@ -2130,7 +2131,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/photo/7437536149263944967</t>
         </is>
@@ -2180,7 +2181,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7437150912080055560</t>
         </is>
@@ -2231,7 +2232,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7436780557654101255</t>
         </is>
@@ -2285,7 +2286,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7436408639289625863</t>
         </is>
@@ -2339,7 +2340,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7436038917545135378</t>
         </is>
@@ -2390,7 +2391,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7435676464126774536</t>
         </is>
@@ -2441,7 +2442,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7434924769713081618</t>
         </is>
@@ -2492,7 +2493,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7434560538421513479</t>
         </is>
@@ -2545,7 +2546,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7434186571064102162</t>
         </is>
@@ -2598,7 +2599,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7433810283056860423</t>
         </is>
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7433450765101927698</t>
         </is>
@@ -2698,7 +2699,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7432312675515845896</t>
         </is>
@@ -2749,7 +2750,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7431576612887399698</t>
         </is>
@@ -2800,7 +2801,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7431204490646261000</t>
         </is>
@@ -2851,7 +2852,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7430456385445416200</t>
         </is>
@@ -2902,7 +2903,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/video/7430107133397585159</t>
         </is>
@@ -2953,7 +2954,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skinbykaur/photo/7429336455647939847</t>
         </is>
